--- a/biology/Zoologie/Dauphin_à_aileron_retroussé_d'Australie/Dauphin_à_aileron_retroussé_d'Australie.xlsx
+++ b/biology/Zoologie/Dauphin_à_aileron_retroussé_d'Australie/Dauphin_à_aileron_retroussé_d'Australie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
+          <t>Dauphin_à_aileron_retroussé_d'Australie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orcaella heinsohni
 L*Orcelle d'Heinsohn, orcelle d'Australie ou dauphin à aileron retroussé (Orcaella heinsohni) ou est une espèce de dauphins de la famille des Delphinidae. Il est appelé Australian Snubfin Dolphin en anglais ce qui se traduit par dauphin à aileron retroussé d'Australie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
+          <t>Dauphin_à_aileron_retroussé_d'Australie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dauphin à aileron retroussé d'Australie a été identifié grâce à des recherches génétiques menées en Californie en collaboration avec le musée du Queensland tropical. Ces recherches qui ont permis de le distinguer de l'Irrawaddy ont été notamment menées par Isabel Beasley de  l'Université James-Cook et Peter Arnold du musée du Queensland tropical.
 Il doit son nom scientifique à George Heinsohn, un chercheur de l'Université James-Cook dont les études sur des carcasses de dauphin durant les années 1960 et 1970 ont aidé à identifier l’Orcaella heinsohni comme étant une espèce distincte du genre Orcaella.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
+          <t>Dauphin_à_aileron_retroussé_d'Australie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,20 +559,91 @@
           <t>Description physique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pratiquement identique à l'orcelle de l'Irrawaddy, il diffère cependant par de petites différences aussi bien physiques que moléculaires.
-Différences majeures avec l'Irrawaddy
-Modèles de coloration
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dauphin_à_aileron_retroussé_d'Australie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description physique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Différences majeures avec l'Irrawaddy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Modèles de coloration
 les observations de spécimens en vie et de carcasses fraîches de Dauphin Irrawaddy dans l'ensemble de l'Asie, ont confirmé un modèle de coloration de deux tonalités - gris schisteux foncé uniforme (nuances de gris changeant considérablement entre les individus) sur les champs dorsaux et latéraux, avec un champ ventral coloré pâle se prolongeant en avant au menton inférieur et postérieurement à l'antérieur de l'anus.  Pour le dauphin à aileron retroussé d'Australie, la coloration tripartite, avec un cap dorsal distinct a été confirmée par des observations sur la côte centrale et nordique du Queensland.
 Morphologie externe
 l'aileron dorsal et les nageoires sont plus petits sur le dauphin à aileron retroussé d'Australie comparé au  dauphin Irrawaddy.
 Différences de crâne
 des caractéristiques divergentes de celui de l'Irrawaddy dans la morphologie du crâne du dauphin à aileron retroussé d'Australie sont présentes dans tous les spécimens de l'espèce.
 Analyses moléculaires
-des différences importantes et significatives ont été montrées par les analyses génétiques.
-Autres différences avec l'Irrawaddy
-Il y avait statistiquement des différences significatives entre les spécimens asiatiques et australiens dans le nombre de dents/alvéoles dans les deux rangées supérieures de dents aussi bien que dans les mâchoires inférieures.
+des différences importantes et significatives ont été montrées par les analyses génétiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dauphin_à_aileron_retroussé_d'Australie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description physique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres différences avec l'Irrawaddy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y avait statistiquement des différences significatives entre les spécimens asiatiques et australiens dans le nombre de dents/alvéoles dans les deux rangées supérieures de dents aussi bien que dans les mâchoires inférieures.
 La variation géographique et interspécifique des os tympanoperiotic demeure non documentée.
 Le nombre de vertèbres dans le O. heinsohni 
         (
@@ -590,31 +675,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dauphin_à_aileron_retroussé_d'Australie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Population et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Encore en étude, l'espèce n'ayant été classifiée que très récemment (2005), on dispose néanmoins d'enregistrements :
 Un enregistrement confirmé à Broome, en Australie occidentale et nordique ainsi que le long des côtes du Queensland et au sud de la rivière de Brisbane.
@@ -626,35 +713,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dauphin_à_aileron_retroussé_d'Australie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dauphin_%C3%A0_aileron_retrouss%C3%A9_d%27Australie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison du fait qu'ils vivent dans des eaux du littoral peu profondes, ils sont menacés par l'homme. En effet ils font face à des dangers tels une capture accidentelle dans des filets de pêche ou les effets du développement côtier.
 Les orcelles d'Heinshon sont aussi attaqués par les requins-tigres et les requins-bouledogues, les crocodiles de mer et même les dauphins à bosse du Pacifique (sotalies de Chine).
-Cependant, le dauphin à aileron retroussé d'Australie semblerait moins en danger que le dauphin de l'Irrawaddy[1].
+Cependant, le dauphin à aileron retroussé d'Australie semblerait moins en danger que le dauphin de l'Irrawaddy.
 </t>
         </is>
       </c>
